--- a/import/prep/excel_original_invoice/64-8ทะเบียนคุมใบแจ้งหนี้ มีค64 (1-31พค64).xlsx
+++ b/import/prep/excel_original_invoice/64-8ทะเบียนคุมใบแจ้งหนี้ มีค64 (1-31พค64).xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/works/WMA201AM1/import/prep/excel_new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Works/WMA201AM1/import/prep/excel_original_invoice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60C6E0A9-6303-BE49-A2EF-99655BAC4D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C585F4DD-2E76-014C-869F-6A9E48BC22B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="50380" windowHeight="28300" activeTab="1"/>
+    <workbookView xWindow="820" yWindow="520" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
     <sheet name="type3" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">type2!$A$4:$T$812</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">type2!$A$4:$T$811</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">type3!$A$4:$T$245</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5238" uniqueCount="3384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5234" uniqueCount="3380">
   <si>
     <t xml:space="preserve">ลำดับ </t>
   </si>
@@ -10176,27 +10176,15 @@
   </si>
   <si>
     <t>เมย59-สค/ตค62-กพ64</t>
-  </si>
-  <si>
-    <t>12170421654</t>
-  </si>
-  <si>
-    <t>76/1 ต.ปากน้ำ อ.เมืองกระบี่ จ.กระบี่</t>
-  </si>
-  <si>
-    <t>ธค62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">บริษัทแอล เอส กรุ๊ป </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -10368,60 +10356,60 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10430,10 +10418,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -10442,35 +10430,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10499,7 +10487,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10509,12 +10497,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10527,7 +10515,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10537,10 +10525,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10549,13 +10537,12 @@
     <xf numFmtId="17" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10565,10 +10552,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10577,28 +10564,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Comma 3" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="เครื่องหมายจุลภาค 2" xfId="6"/>
-    <cellStyle name="เครื่องหมายจุลภาค 2 2" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="เครื่องหมายจุลภาค 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="เครื่องหมายจุลภาค 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10870,11 +10857,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T818"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T817"/>
   <sheetViews>
-    <sheetView topLeftCell="A790" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M810" sqref="M810"/>
+    <sheetView tabSelected="1" topLeftCell="A790" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H809" sqref="H809"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10900,22 +10887,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>3099</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="41"/>
@@ -10937,25 +10924,25 @@
       <c r="P2" s="34"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="75" t="s">
+      <c r="A3" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>473</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="74" t="s">
         <v>475</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="76" t="s">
         <v>428</v>
       </c>
       <c r="H3" s="39" t="s">
@@ -10964,47 +10951,47 @@
       <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="74" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="76" t="s">
+      <c r="N3" s="75" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="24" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="43" t="s">
         <v>474</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="77"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="76"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="75"/>
       <c r="R4" s="44" t="s">
         <v>3100</v>
       </c>
@@ -51819,109 +51806,70 @@
       </c>
     </row>
     <row r="804" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A804" s="45">
-        <v>800</v>
-      </c>
-      <c r="B804" s="46">
-        <v>6420002435</v>
-      </c>
-      <c r="C804" s="52" t="s">
-        <v>3380</v>
-      </c>
-      <c r="D804" s="48" t="s">
-        <v>3383</v>
-      </c>
-      <c r="E804" s="48" t="s">
-        <v>3381</v>
-      </c>
-      <c r="F804" s="45" t="s">
-        <v>3382</v>
-      </c>
-      <c r="G804" s="50">
-        <v>988.68</v>
-      </c>
-      <c r="H804" s="46">
-        <v>0</v>
-      </c>
-      <c r="I804" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="J804" s="50">
-        <f>ROUNDDOWN(H804*I804,2)</f>
-        <v>0</v>
-      </c>
-      <c r="K804" s="50">
-        <f>ROUNDDOWN(J804*7%,2)</f>
-        <v>0</v>
-      </c>
-      <c r="L804" s="50">
-        <f>ROUNDDOWN(J804+K804,2)</f>
-        <v>0</v>
-      </c>
-      <c r="M804" s="50">
+      <c r="C804" s="40"/>
+      <c r="G804" s="62">
+        <f>SUM(G5:G803)</f>
+        <v>2254027.3099999987</v>
+      </c>
+      <c r="L804" s="23">
+        <f>SUM(L5:L803)</f>
+        <v>106733.42999999995</v>
+      </c>
+      <c r="M804" s="24">
+        <f>SUM(M5:M803)</f>
+        <v>2360760.7399999984</v>
+      </c>
+      <c r="N804" s="27">
+        <f>SUM(N5:N803)</f>
+        <v>2360760.7399999984</v>
+      </c>
+      <c r="O804" s="63"/>
+      <c r="P804" s="37">
+        <f>SUM(P5:P803)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L805" s="15">
         <f>SUM(G804+L804)</f>
-        <v>988.68</v>
-      </c>
-      <c r="N804" s="72">
-        <v>988.68</v>
-      </c>
-    </row>
-    <row r="805" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C805" s="40"/>
-      <c r="G805" s="62">
-        <f>SUM(G5:G804)</f>
-        <v>2255015.9899999988</v>
-      </c>
-      <c r="L805" s="23">
-        <f>SUM(L5:L804)</f>
-        <v>106733.42999999995</v>
-      </c>
-      <c r="M805" s="24">
-        <f>SUM(M5:M804)</f>
-        <v>2361749.4199999985</v>
-      </c>
-      <c r="N805" s="27">
-        <f>SUM(N5:N804)</f>
-        <v>2361749.4199999985</v>
-      </c>
-      <c r="O805" s="63"/>
-      <c r="P805" s="37">
-        <f>SUM(P5:P803)</f>
-        <v>0</v>
+        <v>2360760.7399999988</v>
+      </c>
+      <c r="M805" s="50">
+        <f>SUM(N804-P804)</f>
+        <v>2360760.7399999984</v>
       </c>
     </row>
     <row r="806" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L806" s="15">
-        <f>SUM(G805+L805)</f>
-        <v>2361749.419999999</v>
-      </c>
-      <c r="M806" s="50">
-        <f>SUM(N805-P805)</f>
-        <v>2361749.4199999985</v>
-      </c>
+      <c r="G806" s="13"/>
+      <c r="H806" s="13" t="s">
+        <v>2914</v>
+      </c>
+      <c r="J806" s="55"/>
+      <c r="K806" s="55"/>
+      <c r="M806" s="2"/>
     </row>
     <row r="807" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D807" s="40" t="s">
+        <v>709</v>
+      </c>
       <c r="G807" s="13"/>
-      <c r="H807" s="13" t="s">
-        <v>2914</v>
-      </c>
+      <c r="H807" s="40"/>
+      <c r="I807" s="7"/>
       <c r="J807" s="55"/>
       <c r="K807" s="55"/>
-      <c r="M807" s="2"/>
     </row>
     <row r="808" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D808" s="40" t="s">
-        <v>709</v>
-      </c>
-      <c r="G808" s="13"/>
-      <c r="H808" s="40"/>
+        <v>710</v>
+      </c>
+      <c r="G808" s="33"/>
+      <c r="H808" s="10"/>
       <c r="I808" s="7"/>
-      <c r="J808" s="55"/>
-      <c r="K808" s="55"/>
+      <c r="N808" s="7"/>
     </row>
     <row r="809" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D809" s="40" t="s">
-        <v>710</v>
+        <v>2915</v>
       </c>
       <c r="G809" s="33"/>
       <c r="H809" s="10"/>
@@ -51930,39 +51878,30 @@
     </row>
     <row r="810" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D810" s="40" t="s">
-        <v>2915</v>
+        <v>711</v>
       </c>
       <c r="G810" s="33"/>
       <c r="H810" s="10"/>
       <c r="I810" s="7"/>
-      <c r="N810" s="7"/>
+      <c r="J810" s="7"/>
+      <c r="N810" s="62"/>
     </row>
     <row r="811" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D811" s="40" t="s">
-        <v>711</v>
-      </c>
-      <c r="G811" s="33"/>
-      <c r="H811" s="10"/>
-      <c r="I811" s="7"/>
-      <c r="J811" s="7"/>
-      <c r="N811" s="62"/>
+      <c r="H811" s="13"/>
+      <c r="M811" s="2"/>
+      <c r="P811" s="33" t="s">
+        <v>2914</v>
+      </c>
     </row>
     <row r="812" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H812" s="13"/>
-      <c r="M812" s="2"/>
-      <c r="P812" s="33" t="s">
-        <v>2914</v>
-      </c>
     </row>
     <row r="813" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G813" s="13"/>
       <c r="H813" s="13"/>
     </row>
-    <row r="814" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G814" s="13"/>
-      <c r="H814" s="13"/>
-    </row>
-    <row r="818" spans="12:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L818" s="40" t="s">
+    <row r="817" spans="12:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L817" s="40" t="s">
         <v>2940</v>
       </c>
     </row>
@@ -51985,10 +51924,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A155" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
@@ -52018,22 +51957,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>3330</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
       <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
@@ -52053,25 +51992,25 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="78" t="s">
+      <c r="A3" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="77" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>473</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>475</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="77" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="79" t="s">
         <v>428</v>
       </c>
       <c r="H3" s="39" t="s">
@@ -52080,47 +52019,47 @@
       <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="77" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="78" t="s">
+      <c r="M3" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="82" t="s">
+      <c r="N3" s="81" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="43" t="s">
         <v>474</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="81"/>
+      <c r="G4" s="80"/>
       <c r="H4" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
       <c r="L4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="79"/>
-      <c r="N4" s="83"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="82"/>
       <c r="Q4" s="67"/>
       <c r="R4" s="18" t="s">
         <v>3100</v>
